--- a/biology/Zoologie/Cacatoès_à_tête_rouge/Cacatoès_à_tête_rouge.xlsx
+++ b/biology/Zoologie/Cacatoès_à_tête_rouge/Cacatoès_à_tête_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_%C3%A0_t%C3%AAte_rouge</t>
+          <t>Cacatoès_à_tête_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callocephalon fimbriatum
 Le Cacatoès à tête rouge  ou Cacatoès gang-gang (Callocephalon fimbriatum) est une espèce d'oiseaux (des cacatoès) australiens. Cet animal est l'emblème du Territoire de la capitale australienne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_%C3%A0_t%C3%AAte_rouge</t>
+          <t>Cacatoès_à_tête_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau pèse en moyenne 250 grammes (pouvant aller jusque 280 g) pour 34 centimètres de long (valeurs extrêmes de 32 et 37 cm). Le plumage est gris avec des rayures blanches. Le mâle a une tête avec une crête rouge tandis que la femelle est entièrement grise avec une petite huppe grise. Il a un cri facilement reconnaissable rappelant une porte qui grince ou le bruit d'une bouteille de vin qu'on ouvre.
 L'immature ressemble à la femelle, le jeune mâle présentant un peu de rouge à la tête.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_%C3%A0_t%C3%AAte_rouge</t>
+          <t>Cacatoès_à_tête_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau habite dans les bois des régions froides et humides des Alpes australiennes dans le sud-est de l'Australie où il peut vivre dans la neige se nourrissant de fruits d'eucalyptus. Il a été introduit sur Kangaroo Island.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_%C3%A0_t%C3%AAte_rouge</t>
+          <t>Cacatoès_à_tête_rouge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces oiseaux vivent en bandes d'une cinquantaine d'individus sauf pendant la période de reproduction où ils vivent en couple.
 Ils demeurent dans les arbres et ne descendent sur le sol que pour boire ou ramasser des fruits
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_%C3%A0_t%C3%AAte_rouge</t>
+          <t>Cacatoès_à_tête_rouge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils se nourrissent de fruits d'eucalyptus, d'acacias et d'aubépine, une plante importée. Ils se nourrissent aussi d'insectes.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_%C3%A0_t%C3%AAte_rouge</t>
+          <t>Cacatoès_à_tête_rouge</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond généralement deux œufs dans un nid construit en creusant un tronc d'arbre. La couvaison a lieu d'octobre à janvier et dure 28 à 30 jours. Les jeunes demeurent au nid environ huit semaines.
 </t>
